--- a/data/BaCandBLUE_Bioassay/data.xlsx
+++ b/data/BaCandBLUE_Bioassay/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jbrown\Documents\GitHub\BACandBlue\data\BaCandBLUE_Bioassay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ED9C4E-38CC-496F-8E0E-13775CB7A715}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FD8E0E-293A-4152-ACB1-8AFCBED0C532}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99E64796-4F29-41EC-970D-10A1DFAD320F}"/>
+    <workbookView xWindow="8160" yWindow="510" windowWidth="20595" windowHeight="13410" xr2:uid="{99E64796-4F29-41EC-970D-10A1DFAD320F}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="29">
   <si>
     <t>starve_time</t>
   </si>
@@ -509,11 +509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4692C6BA-E613-4C3D-8D23-165E27AB70C4}">
-  <dimension ref="A1:P143"/>
+  <dimension ref="A1:P153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P134" sqref="P134"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,11 +527,11 @@
     <col min="8" max="8" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="2" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -577,22 +577,22 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -611,17 +611,17 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2" s="2">
-        <v>3</v>
-      </c>
-      <c r="N2" s="2">
         <v>6</v>
       </c>
-      <c r="P2" s="4">
-        <f t="shared" ref="P2:P65" si="0">L2+M2+N2</f>
+      <c r="O2" s="4">
+        <f t="shared" ref="O2:O65" si="0">K2+L2+M2</f>
         <v>10</v>
       </c>
     </row>
@@ -641,16 +641,16 @@
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="K3" s="2">
+        <v>3</v>
+      </c>
       <c r="L3" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="M3" s="2">
-        <v>13</v>
-      </c>
-      <c r="N3" s="2">
         <v>1</v>
       </c>
-      <c r="P3" s="4">
+      <c r="O3" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -671,16 +671,16 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="K4" s="2">
+        <v>3</v>
+      </c>
       <c r="L4" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M4" s="2">
-        <v>7</v>
-      </c>
-      <c r="N4" s="2">
-        <v>2</v>
-      </c>
-      <c r="P4" s="4">
+        <v>2</v>
+      </c>
+      <c r="O4" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -701,16 +701,16 @@
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K5" s="2">
+        <v>12</v>
+      </c>
       <c r="L5" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M5" s="2">
         <v>4</v>
       </c>
-      <c r="N5" s="2">
-        <v>4</v>
-      </c>
-      <c r="P5" s="4">
+      <c r="O5" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -731,16 +731,16 @@
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K6" s="2">
+        <v>9</v>
+      </c>
       <c r="L6" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M6" s="2">
-        <v>5</v>
-      </c>
-      <c r="N6" s="2">
         <v>3</v>
       </c>
-      <c r="P6" s="4">
+      <c r="O6" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -761,16 +761,16 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K7" s="2">
+        <v>15</v>
+      </c>
       <c r="L7" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
         <v>4</v>
       </c>
-      <c r="P7" s="4">
+      <c r="O7" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -791,16 +791,16 @@
       <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="K8" s="2">
+        <v>4</v>
+      </c>
       <c r="L8" s="2">
+        <v>6</v>
+      </c>
+      <c r="M8" s="2">
         <v>4</v>
       </c>
-      <c r="M8" s="2">
-        <v>6</v>
-      </c>
-      <c r="N8" s="2">
-        <v>4</v>
-      </c>
-      <c r="P8" s="4">
+      <c r="O8" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -821,16 +821,16 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="2">
-        <v>2</v>
-      </c>
-      <c r="N9" s="2">
         <v>3</v>
       </c>
-      <c r="P9" s="4">
+      <c r="O9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -851,16 +851,16 @@
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="K10" s="2">
+        <v>9</v>
+      </c>
       <c r="L10" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2">
         <v>5</v>
       </c>
-      <c r="P10" s="4">
+      <c r="O10" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -881,16 +881,16 @@
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M11" s="2">
-        <v>4</v>
-      </c>
-      <c r="N11" s="2">
         <v>6</v>
       </c>
-      <c r="P11" s="4">
+      <c r="O11" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -911,16 +911,16 @@
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="K12" s="2">
+        <v>3</v>
+      </c>
       <c r="L12" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="M12" s="2">
-        <v>13</v>
-      </c>
-      <c r="N12" s="2">
         <v>4</v>
       </c>
-      <c r="P12" s="4">
+      <c r="O12" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -941,16 +941,16 @@
       <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="K13" s="2">
+        <v>16</v>
+      </c>
       <c r="L13" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M13" s="2">
-        <v>2</v>
-      </c>
-      <c r="N13" s="2">
         <v>1</v>
       </c>
-      <c r="P13" s="4">
+      <c r="O13" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -971,16 +971,16 @@
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="K14" s="2">
+        <v>6</v>
+      </c>
       <c r="L14" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M14" s="2">
-        <v>4</v>
-      </c>
-      <c r="N14" s="2">
-        <v>2</v>
-      </c>
-      <c r="P14" s="4">
+        <v>2</v>
+      </c>
+      <c r="O14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1001,16 +1001,16 @@
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="K15" s="2">
+        <v>2</v>
+      </c>
       <c r="L15" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15" s="2">
-        <v>4</v>
-      </c>
-      <c r="N15" s="2">
         <v>1</v>
       </c>
-      <c r="P15" s="4">
+      <c r="O15" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1031,21 +1031,21 @@
       <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="K16" s="2">
+        <v>10</v>
+      </c>
       <c r="L16" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M16" s="2">
         <v>4</v>
       </c>
-      <c r="N16" s="2">
-        <v>4</v>
-      </c>
-      <c r="P16" s="4">
+      <c r="O16" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1061,21 +1061,21 @@
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K17" s="2">
+        <v>6</v>
+      </c>
       <c r="L17" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M17" s="2">
-        <v>2</v>
-      </c>
-      <c r="N17" s="2">
         <v>0</v>
       </c>
-      <c r="P17" s="4">
+      <c r="O17" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1091,21 +1091,21 @@
       <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>1</v>
-      </c>
-      <c r="N18" s="2">
         <v>4</v>
       </c>
-      <c r="P18" s="4">
+      <c r="O18" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1121,21 +1121,21 @@
       <c r="E19" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K19" s="2">
+        <v>2</v>
+      </c>
       <c r="L19" s="2">
         <v>2</v>
       </c>
       <c r="M19" s="2">
         <v>2</v>
       </c>
-      <c r="N19" s="2">
-        <v>2</v>
-      </c>
-      <c r="P19" s="4">
+      <c r="O19" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1151,21 +1151,21 @@
       <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="K20" s="2">
+        <v>5</v>
+      </c>
       <c r="L20" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M20" s="2">
-        <v>10</v>
-      </c>
-      <c r="N20" s="2">
         <v>3</v>
       </c>
-      <c r="P20" s="4">
+      <c r="O20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1181,21 +1181,21 @@
       <c r="E21" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="K21" s="2">
+        <v>7</v>
+      </c>
       <c r="L21" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M21" s="2">
         <v>3</v>
       </c>
-      <c r="N21" s="2">
-        <v>3</v>
-      </c>
-      <c r="P21" s="4">
+      <c r="O21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1211,21 +1211,21 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="K22" s="2">
+        <v>8</v>
+      </c>
       <c r="L22" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M22" s="2">
-        <v>4</v>
-      </c>
-      <c r="N22" s="2">
         <v>3</v>
       </c>
-      <c r="P22" s="4">
+      <c r="O22" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1241,21 +1241,21 @@
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K23" s="2">
+        <v>8</v>
+      </c>
       <c r="L23" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M23" s="2">
-        <v>9</v>
-      </c>
-      <c r="N23" s="2">
         <v>3</v>
       </c>
-      <c r="P23" s="4">
+      <c r="O23" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1271,21 +1271,21 @@
       <c r="E24" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K24" s="2">
+        <v>10</v>
+      </c>
       <c r="L24" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M24" s="2">
-        <v>4</v>
-      </c>
-      <c r="N24" s="2">
         <v>6</v>
       </c>
-      <c r="P24" s="4">
+      <c r="O24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1301,21 +1301,21 @@
       <c r="E25" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K25" s="2">
+        <v>13</v>
+      </c>
       <c r="L25" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M25" s="2">
-        <v>6</v>
-      </c>
-      <c r="N25" s="2">
         <v>1</v>
       </c>
-      <c r="P25" s="4">
+      <c r="O25" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1331,21 +1331,21 @@
       <c r="E26" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="K26" s="2">
+        <v>9</v>
+      </c>
       <c r="L26" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M26" s="2">
-        <v>8</v>
-      </c>
-      <c r="N26" s="2">
-        <v>2</v>
-      </c>
-      <c r="P26" s="4">
+        <v>2</v>
+      </c>
+      <c r="O26" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1361,21 +1361,21 @@
       <c r="E27" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="K27" s="2">
+        <v>12</v>
+      </c>
       <c r="L27" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M27" s="2">
         <v>4</v>
       </c>
-      <c r="N27" s="2">
-        <v>4</v>
-      </c>
-      <c r="P27" s="4">
+      <c r="O27" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1391,21 +1391,21 @@
       <c r="E28" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="K28" s="2">
+        <v>15</v>
+      </c>
       <c r="L28" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M28" s="2">
-        <v>3</v>
-      </c>
-      <c r="N28" s="2">
-        <v>2</v>
-      </c>
-      <c r="P28" s="4">
+        <v>2</v>
+      </c>
+      <c r="O28" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1421,21 +1421,21 @@
       <c r="E29" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="K29" s="2">
+        <v>13</v>
+      </c>
       <c r="L29" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M29" s="2">
-        <v>4</v>
-      </c>
-      <c r="N29" s="2">
         <v>0</v>
       </c>
-      <c r="P29" s="4">
+      <c r="O29" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -1451,21 +1451,21 @@
       <c r="E30" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="K30" s="2">
+        <v>16</v>
+      </c>
       <c r="L30" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2">
         <v>4</v>
       </c>
-      <c r="P30" s="4">
+      <c r="O30" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1481,21 +1481,21 @@
       <c r="E31" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="K31" s="2">
+        <v>10</v>
+      </c>
       <c r="L31" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M31" s="2">
-        <v>8</v>
-      </c>
-      <c r="N31" s="2">
-        <v>2</v>
-      </c>
-      <c r="P31" s="4">
+        <v>2</v>
+      </c>
+      <c r="O31" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1511,21 +1511,21 @@
       <c r="E32" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="K32" s="2">
+        <v>12</v>
+      </c>
       <c r="L32" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M32" s="2">
-        <v>5</v>
-      </c>
-      <c r="N32" s="2">
         <v>3</v>
       </c>
-      <c r="P32" s="4">
+      <c r="O32" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -1541,21 +1541,21 @@
       <c r="E33" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="K33" s="2">
+        <v>13</v>
+      </c>
       <c r="L33" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M33" s="2">
         <v>3</v>
       </c>
-      <c r="N33" s="2">
-        <v>3</v>
-      </c>
-      <c r="P33" s="4">
+      <c r="O33" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -1571,21 +1571,21 @@
       <c r="E34" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="K34" s="2">
+        <v>6</v>
+      </c>
       <c r="L34" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M34" s="2">
-        <v>11</v>
-      </c>
-      <c r="N34" s="2">
         <v>3</v>
       </c>
-      <c r="P34" s="4">
+      <c r="O34" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -1601,21 +1601,21 @@
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K35" s="2">
+        <v>12</v>
+      </c>
       <c r="L35" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M35" s="2">
-        <v>8</v>
-      </c>
-      <c r="N35" s="2">
         <v>0</v>
       </c>
-      <c r="P35" s="4">
+      <c r="O35" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -1631,21 +1631,21 @@
       <c r="E36" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K36" s="2">
+        <v>10</v>
+      </c>
       <c r="L36" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M36" s="2">
         <v>5</v>
       </c>
-      <c r="N36" s="2">
-        <v>5</v>
-      </c>
-      <c r="P36" s="4">
+      <c r="O36" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -1661,21 +1661,21 @@
       <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K37" s="2">
+        <v>12</v>
+      </c>
       <c r="L37" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M37" s="2">
-        <v>3</v>
-      </c>
-      <c r="N37" s="2">
         <v>5</v>
       </c>
-      <c r="P37" s="4">
+      <c r="O37" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
@@ -1691,21 +1691,21 @@
       <c r="E38" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="K38" s="2">
+        <v>7</v>
+      </c>
       <c r="L38" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M38" s="2">
-        <v>10</v>
-      </c>
-      <c r="N38" s="2">
-        <v>2</v>
-      </c>
-      <c r="P38" s="4">
+        <v>2</v>
+      </c>
+      <c r="O38" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>14</v>
       </c>
@@ -1721,21 +1721,21 @@
       <c r="E39" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="K39" s="2">
+        <v>3</v>
+      </c>
       <c r="L39" s="2">
+        <v>12</v>
+      </c>
+      <c r="M39" s="2">
         <v>3</v>
       </c>
-      <c r="M39" s="2">
-        <v>12</v>
-      </c>
-      <c r="N39" s="2">
-        <v>3</v>
-      </c>
-      <c r="P39" s="4">
+      <c r="O39" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
@@ -1751,21 +1751,21 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
       <c r="L40" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M40" s="2">
-        <v>17</v>
-      </c>
-      <c r="N40" s="2">
-        <v>2</v>
-      </c>
-      <c r="P40" s="4">
+        <v>2</v>
+      </c>
+      <c r="O40" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -1781,21 +1781,21 @@
       <c r="E41" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K41" s="2">
+        <v>16</v>
+      </c>
       <c r="L41" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M41" s="2">
-        <v>4</v>
-      </c>
-      <c r="N41" s="2">
         <v>0</v>
       </c>
-      <c r="P41" s="4">
+      <c r="O41" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
@@ -1811,21 +1811,21 @@
       <c r="E42" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K42" s="2">
+        <v>10</v>
+      </c>
       <c r="L42" s="2">
         <v>10</v>
       </c>
       <c r="M42" s="2">
-        <v>10</v>
-      </c>
-      <c r="N42" s="2">
         <v>0</v>
       </c>
-      <c r="P42" s="4">
+      <c r="O42" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -1841,21 +1841,21 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K43" s="2">
+        <v>5</v>
+      </c>
       <c r="L43" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M43" s="2">
-        <v>14</v>
-      </c>
-      <c r="N43" s="2">
         <v>1</v>
       </c>
-      <c r="P43" s="4">
+      <c r="O43" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>14</v>
       </c>
@@ -1871,21 +1871,21 @@
       <c r="E44" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="K44" s="2">
+        <v>7</v>
+      </c>
       <c r="L44" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M44" s="2">
         <v>5</v>
       </c>
-      <c r="N44" s="2">
-        <v>5</v>
-      </c>
-      <c r="P44" s="4">
+      <c r="O44" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
@@ -1901,21 +1901,21 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="K45" s="2">
+        <v>6</v>
+      </c>
       <c r="L45" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M45" s="2">
-        <v>8</v>
-      </c>
-      <c r="N45" s="2">
         <v>5</v>
       </c>
-      <c r="P45" s="4">
+      <c r="O45" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>14</v>
       </c>
@@ -1931,21 +1931,21 @@
       <c r="E46" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="K46" s="2">
+        <v>18</v>
+      </c>
       <c r="L46" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="M46" s="2">
         <v>1</v>
       </c>
-      <c r="N46" s="2">
-        <v>1</v>
-      </c>
-      <c r="P46" s="4">
+      <c r="O46" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -1961,21 +1961,21 @@
       <c r="E47" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="K47" s="2">
+        <v>10</v>
+      </c>
       <c r="L47" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M47" s="2">
-        <v>3</v>
-      </c>
-      <c r="N47" s="2">
         <v>7</v>
       </c>
-      <c r="P47" s="4">
+      <c r="O47" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -1991,16 +1991,16 @@
       <c r="E48" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="K48" s="2">
+        <v>14</v>
+      </c>
       <c r="L48" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M48" s="2">
-        <v>5</v>
-      </c>
-      <c r="N48" s="2">
         <v>0</v>
       </c>
-      <c r="P48" s="4">
+      <c r="O48" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -2021,16 +2021,16 @@
       <c r="E49" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="K49" s="2">
+        <v>7</v>
+      </c>
       <c r="L49" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M49" s="2">
-        <v>10</v>
-      </c>
-      <c r="N49" s="2">
         <v>3</v>
       </c>
-      <c r="P49" s="4">
+      <c r="O49" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2051,16 +2051,16 @@
       <c r="E50" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="K50" s="2">
+        <v>15</v>
+      </c>
       <c r="L50" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M50" s="2">
-        <v>4</v>
-      </c>
-      <c r="N50" s="2">
         <v>0</v>
       </c>
-      <c r="P50" s="4">
+      <c r="O50" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -2081,16 +2081,16 @@
       <c r="E51" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="K51" s="2">
+        <v>13</v>
+      </c>
       <c r="L51" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M51" s="2">
-        <v>7</v>
-      </c>
-      <c r="N51" s="2">
         <v>0</v>
       </c>
-      <c r="P51" s="4">
+      <c r="O51" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2111,16 +2111,16 @@
       <c r="E52" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="K52" s="2">
+        <v>7</v>
+      </c>
       <c r="L52" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M52" s="2">
-        <v>8</v>
-      </c>
-      <c r="N52" s="2">
-        <v>2</v>
-      </c>
-      <c r="P52" s="4">
+        <v>2</v>
+      </c>
+      <c r="O52" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -2141,16 +2141,16 @@
       <c r="E53" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K53" s="2">
+        <v>17</v>
+      </c>
       <c r="L53" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="M53" s="2">
-        <v>1</v>
-      </c>
-      <c r="N53" s="2">
-        <v>2</v>
-      </c>
-      <c r="P53" s="4">
+        <v>2</v>
+      </c>
+      <c r="O53" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2171,16 +2171,16 @@
       <c r="E54" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K54" s="2">
+        <v>13</v>
+      </c>
       <c r="L54" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M54" s="2">
-        <v>8</v>
-      </c>
-      <c r="N54" s="2">
         <v>0</v>
       </c>
-      <c r="P54" s="4">
+      <c r="O54" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -2201,16 +2201,16 @@
       <c r="E55" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K55" s="2">
+        <v>10</v>
+      </c>
       <c r="L55" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M55" s="2">
-        <v>8</v>
-      </c>
-      <c r="N55" s="2">
-        <v>2</v>
-      </c>
-      <c r="P55" s="4">
+        <v>2</v>
+      </c>
+      <c r="O55" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2238,20 +2238,20 @@
         <v>21</v>
       </c>
       <c r="K56" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="L56" s="2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M56" s="2">
-        <v>10</v>
-      </c>
-      <c r="N56" s="2">
         <v>8</v>
       </c>
-      <c r="P56" s="4">
+      <c r="O56" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
+      </c>
+      <c r="P56" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -2277,20 +2277,20 @@
         <v>21</v>
       </c>
       <c r="K57" s="2">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="L57" s="2">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="M57" s="2">
-        <v>3</v>
-      </c>
-      <c r="N57" s="2">
         <v>10</v>
       </c>
-      <c r="P57" s="4">
+      <c r="O57" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
+      </c>
+      <c r="P57" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -2316,21 +2316,21 @@
         <v>21</v>
       </c>
       <c r="K58" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L58" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M58" s="2">
-        <v>15</v>
-      </c>
-      <c r="N58" s="2">
         <v>14</v>
       </c>
-      <c r="P58" s="4">
+      <c r="O58" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
+      <c r="P58" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
@@ -2355,21 +2355,21 @@
         <v>21</v>
       </c>
       <c r="K59" s="2">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="L59" s="2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="M59" s="2">
-        <v>0</v>
-      </c>
-      <c r="N59" s="2">
         <v>9</v>
       </c>
-      <c r="P59" s="4">
+      <c r="O59" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
+      <c r="P59" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
@@ -2394,21 +2394,21 @@
         <v>21</v>
       </c>
       <c r="K60" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L60" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M60" s="2">
-        <v>15</v>
-      </c>
-      <c r="N60" s="2">
         <v>12</v>
       </c>
-      <c r="P60" s="4">
+      <c r="O60" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
+      <c r="P60" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
@@ -2433,20 +2433,20 @@
         <v>21</v>
       </c>
       <c r="K61" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L61" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M61" s="2">
-        <v>9</v>
-      </c>
-      <c r="N61" s="2">
         <v>11</v>
       </c>
-      <c r="P61" s="4">
+      <c r="O61" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
+      </c>
+      <c r="P61" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -2472,20 +2472,20 @@
         <v>21</v>
       </c>
       <c r="K62" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L62" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M62" s="2">
-        <v>13</v>
-      </c>
-      <c r="N62" s="2">
         <v>12</v>
       </c>
-      <c r="P62" s="4">
+      <c r="O62" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
+      </c>
+      <c r="P62" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -2511,21 +2511,21 @@
         <v>21</v>
       </c>
       <c r="K63" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L63" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M63" s="2">
-        <v>16</v>
-      </c>
-      <c r="N63" s="2">
         <v>5</v>
       </c>
-      <c r="P63" s="4">
+      <c r="O63" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="P63" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
@@ -2550,21 +2550,21 @@
         <v>21</v>
       </c>
       <c r="K64" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="L64" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M64" s="2">
-        <v>16</v>
-      </c>
-      <c r="N64" s="2">
         <v>4</v>
       </c>
-      <c r="P64" s="4">
+      <c r="O64" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
+      <c r="P64" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
@@ -2589,21 +2589,21 @@
         <v>21</v>
       </c>
       <c r="K65" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="L65" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M65" s="2">
         <v>10</v>
       </c>
-      <c r="N65" s="2">
-        <v>10</v>
-      </c>
-      <c r="P65" s="4">
+      <c r="O65" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
+      <c r="P65" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
@@ -2631,17 +2631,17 @@
         <v>24</v>
       </c>
       <c r="L66" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M66" s="2">
         <v>8</v>
       </c>
-      <c r="N66" s="2">
-        <v>8</v>
-      </c>
-      <c r="P66" s="4">
-        <f t="shared" ref="P66:P129" si="1">L66+M66+N66</f>
-        <v>40</v>
+      <c r="O66" s="4">
+        <f t="shared" ref="O66:O129" si="1">K66+L66+M66</f>
+        <v>40</v>
+      </c>
+      <c r="P66" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
@@ -2667,20 +2667,20 @@
         <v>21</v>
       </c>
       <c r="K67" s="2">
+        <v>10</v>
+      </c>
+      <c r="L67" s="2">
+        <v>18</v>
+      </c>
+      <c r="M67" s="2">
+        <v>12</v>
+      </c>
+      <c r="O67" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P67" s="2">
         <v>24</v>
-      </c>
-      <c r="L67" s="2">
-        <v>10</v>
-      </c>
-      <c r="M67" s="2">
-        <v>18</v>
-      </c>
-      <c r="N67" s="2">
-        <v>12</v>
-      </c>
-      <c r="P67" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -2706,20 +2706,20 @@
         <v>21</v>
       </c>
       <c r="K68" s="2">
+        <v>27</v>
+      </c>
+      <c r="L68" s="2">
+        <v>7</v>
+      </c>
+      <c r="M68" s="2">
+        <v>6</v>
+      </c>
+      <c r="O68" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P68" s="2">
         <v>24</v>
-      </c>
-      <c r="L68" s="2">
-        <v>27</v>
-      </c>
-      <c r="M68" s="2">
-        <v>7</v>
-      </c>
-      <c r="N68" s="2">
-        <v>6</v>
-      </c>
-      <c r="P68" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -2745,20 +2745,20 @@
         <v>21</v>
       </c>
       <c r="K69" s="2">
+        <v>11</v>
+      </c>
+      <c r="L69" s="2">
+        <v>17</v>
+      </c>
+      <c r="M69" s="2">
+        <v>12</v>
+      </c>
+      <c r="O69" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P69" s="2">
         <v>24</v>
-      </c>
-      <c r="L69" s="2">
-        <v>11</v>
-      </c>
-      <c r="M69" s="2">
-        <v>17</v>
-      </c>
-      <c r="N69" s="2">
-        <v>12</v>
-      </c>
-      <c r="P69" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
@@ -2784,21 +2784,21 @@
         <v>21</v>
       </c>
       <c r="K70" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L70" s="2">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="M70" s="2">
-        <v>7</v>
-      </c>
-      <c r="N70" s="2">
         <v>5</v>
       </c>
-      <c r="P70" s="4">
+      <c r="O70" s="4">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
+      <c r="P70" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
@@ -2826,18 +2826,18 @@
         <v>24</v>
       </c>
       <c r="L71" s="2">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M71" s="2">
-        <v>11</v>
-      </c>
-      <c r="N71" s="2">
         <v>1</v>
       </c>
-      <c r="P71" s="4">
+      <c r="O71" s="4">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
+      <c r="P71" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
@@ -2862,21 +2862,21 @@
         <v>21</v>
       </c>
       <c r="K72" s="2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L72" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M72" s="2">
-        <v>18</v>
-      </c>
-      <c r="N72" s="2">
-        <v>2</v>
-      </c>
-      <c r="P72" s="4">
+        <v>2</v>
+      </c>
+      <c r="O72" s="4">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
+      <c r="P72" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
@@ -2904,17 +2904,17 @@
         <v>24</v>
       </c>
       <c r="L73" s="2">
+        <v>5</v>
+      </c>
+      <c r="M73" s="2">
+        <v>11</v>
+      </c>
+      <c r="O73" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P73" s="2">
         <v>24</v>
-      </c>
-      <c r="M73" s="2">
-        <v>5</v>
-      </c>
-      <c r="N73" s="2">
-        <v>11</v>
-      </c>
-      <c r="P73" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
@@ -2940,21 +2940,21 @@
         <v>21</v>
       </c>
       <c r="K74" s="2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L74" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M74" s="2">
-        <v>8</v>
-      </c>
-      <c r="N74" s="2">
         <v>12</v>
       </c>
-      <c r="P74" s="4">
+      <c r="O74" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
+      <c r="P74" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
@@ -2979,21 +2979,21 @@
         <v>21</v>
       </c>
       <c r="K75" s="2">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="L75" s="2">
+        <v>9</v>
+      </c>
+      <c r="M75" s="2">
         <v>7</v>
       </c>
-      <c r="M75" s="2">
-        <v>9</v>
-      </c>
-      <c r="N75" s="2">
-        <v>7</v>
-      </c>
-      <c r="P75" s="4">
+      <c r="O75" s="4">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
+      <c r="P75" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
@@ -3018,21 +3018,21 @@
         <v>21</v>
       </c>
       <c r="K76" s="2">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="L76" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="M76" s="2">
-        <v>19</v>
-      </c>
-      <c r="N76" s="2">
         <v>13</v>
       </c>
-      <c r="P76" s="4">
+      <c r="O76" s="4">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
+      <c r="P76" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
@@ -3057,21 +3057,21 @@
         <v>21</v>
       </c>
       <c r="K77" s="2">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="L77" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M77" s="2">
-        <v>10</v>
-      </c>
-      <c r="N77" s="2">
         <v>11</v>
       </c>
-      <c r="P77" s="4">
+      <c r="O77" s="4">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
+      <c r="P77" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
@@ -3096,20 +3096,20 @@
         <v>21</v>
       </c>
       <c r="K78" s="2">
+        <v>17</v>
+      </c>
+      <c r="L78" s="2">
+        <v>11</v>
+      </c>
+      <c r="M78" s="2">
+        <v>12</v>
+      </c>
+      <c r="O78" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P78" s="2">
         <v>48</v>
-      </c>
-      <c r="L78" s="2">
-        <v>17</v>
-      </c>
-      <c r="M78" s="2">
-        <v>11</v>
-      </c>
-      <c r="N78" s="2">
-        <v>12</v>
-      </c>
-      <c r="P78" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
@@ -3135,20 +3135,20 @@
         <v>21</v>
       </c>
       <c r="K79" s="2">
+        <v>17</v>
+      </c>
+      <c r="L79" s="2">
+        <v>19</v>
+      </c>
+      <c r="M79" s="2">
+        <v>4</v>
+      </c>
+      <c r="O79" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P79" s="2">
         <v>48</v>
-      </c>
-      <c r="L79" s="2">
-        <v>17</v>
-      </c>
-      <c r="M79" s="2">
-        <v>19</v>
-      </c>
-      <c r="N79" s="2">
-        <v>4</v>
-      </c>
-      <c r="P79" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
@@ -3174,21 +3174,21 @@
         <v>21</v>
       </c>
       <c r="K80" s="2">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="L80" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M80" s="2">
-        <v>21</v>
-      </c>
-      <c r="N80" s="2">
-        <v>2</v>
-      </c>
-      <c r="P80" s="4">
+        <v>2</v>
+      </c>
+      <c r="O80" s="4">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
+      <c r="P80" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
@@ -3213,20 +3213,20 @@
         <v>21</v>
       </c>
       <c r="K81" s="2">
+        <v>29</v>
+      </c>
+      <c r="L81" s="2">
+        <v>6</v>
+      </c>
+      <c r="M81" s="2">
+        <v>5</v>
+      </c>
+      <c r="O81" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P81" s="2">
         <v>48</v>
-      </c>
-      <c r="L81" s="2">
-        <v>29</v>
-      </c>
-      <c r="M81" s="2">
-        <v>6</v>
-      </c>
-      <c r="N81" s="2">
-        <v>5</v>
-      </c>
-      <c r="P81" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
@@ -3252,21 +3252,21 @@
         <v>21</v>
       </c>
       <c r="K82" s="2">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="L82" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M82" s="2">
-        <v>5</v>
-      </c>
-      <c r="N82" s="2">
         <v>13</v>
       </c>
-      <c r="P82" s="4">
+      <c r="O82" s="4">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
+      <c r="P82" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
@@ -3291,21 +3291,21 @@
         <v>21</v>
       </c>
       <c r="K83" s="2">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="L83" s="2">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M83" s="2">
-        <v>7</v>
-      </c>
-      <c r="N83" s="2">
         <v>12</v>
       </c>
-      <c r="P83" s="4">
+      <c r="O83" s="4">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
+      <c r="P83" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
@@ -3330,21 +3330,21 @@
         <v>21</v>
       </c>
       <c r="K84" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="L84" s="2">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="M84" s="2">
-        <v>0</v>
-      </c>
-      <c r="N84" s="2">
         <v>12</v>
       </c>
-      <c r="P84" s="4">
+      <c r="O84" s="4">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
+      <c r="P84" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
@@ -3369,21 +3369,21 @@
         <v>21</v>
       </c>
       <c r="K85" s="2">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="L85" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M85" s="2">
-        <v>1</v>
-      </c>
-      <c r="N85" s="2">
         <v>13</v>
       </c>
-      <c r="P85" s="4">
+      <c r="O85" s="4">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
+      <c r="P85" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
@@ -3408,21 +3408,21 @@
         <v>21</v>
       </c>
       <c r="K86" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L86" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M86" s="2">
-        <v>11</v>
-      </c>
-      <c r="N86" s="2">
-        <v>17</v>
-      </c>
-      <c r="P86" s="4">
+        <v>17</v>
+      </c>
+      <c r="O86" s="4">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
+      <c r="P86" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
@@ -3447,20 +3447,20 @@
         <v>21</v>
       </c>
       <c r="K87" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L87" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M87" s="2">
-        <v>16</v>
-      </c>
-      <c r="N87" s="2">
         <v>23</v>
       </c>
-      <c r="P87" s="4">
+      <c r="O87" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
+      </c>
+      <c r="P87" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
@@ -3486,20 +3486,20 @@
         <v>21</v>
       </c>
       <c r="K88" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L88" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M88" s="2">
-        <v>19</v>
-      </c>
-      <c r="N88" s="2">
         <v>6</v>
       </c>
-      <c r="P88" s="4">
+      <c r="O88" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
+      </c>
+      <c r="P88" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
@@ -3525,21 +3525,21 @@
         <v>21</v>
       </c>
       <c r="K89" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="L89" s="2">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="M89" s="2">
-        <v>4</v>
-      </c>
-      <c r="N89" s="2">
         <v>13</v>
       </c>
-      <c r="P89" s="4">
+      <c r="O89" s="4">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
+      <c r="P89" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
@@ -3564,21 +3564,21 @@
         <v>21</v>
       </c>
       <c r="K90" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L90" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M90" s="2">
-        <v>13</v>
-      </c>
-      <c r="N90" s="2">
         <v>10</v>
       </c>
-      <c r="P90" s="4">
+      <c r="O90" s="4">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
+      <c r="P90" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
@@ -3603,20 +3603,20 @@
         <v>21</v>
       </c>
       <c r="K91" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L91" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M91" s="2">
-        <v>3</v>
-      </c>
-      <c r="N91" s="2">
-        <v>17</v>
-      </c>
-      <c r="P91" s="4">
+        <v>17</v>
+      </c>
+      <c r="O91" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
+      </c>
+      <c r="P91" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
@@ -3642,21 +3642,21 @@
         <v>21</v>
       </c>
       <c r="K92" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L92" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M92" s="2">
-        <v>16</v>
-      </c>
-      <c r="N92" s="2">
         <v>12</v>
       </c>
-      <c r="P92" s="4">
+      <c r="O92" s="4">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
+      <c r="P92" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
@@ -3681,20 +3681,20 @@
         <v>21</v>
       </c>
       <c r="K93" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="L93" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M93" s="2">
-        <v>11</v>
-      </c>
-      <c r="N93" s="2">
         <v>12</v>
       </c>
-      <c r="P93" s="4">
+      <c r="O93" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
+      </c>
+      <c r="P93" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
@@ -3720,21 +3720,21 @@
         <v>21</v>
       </c>
       <c r="K94" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="L94" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M94" s="2">
-        <v>11</v>
-      </c>
-      <c r="N94" s="2">
         <v>12</v>
       </c>
-      <c r="P94" s="4">
+      <c r="O94" s="4">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
+      <c r="P94" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
@@ -3759,20 +3759,20 @@
         <v>21</v>
       </c>
       <c r="K95" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="L95" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M95" s="2">
-        <v>16</v>
-      </c>
-      <c r="N95" s="2">
         <v>7</v>
       </c>
-      <c r="P95" s="4">
+      <c r="O95" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
+      </c>
+      <c r="P95" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.25">
@@ -3798,20 +3798,20 @@
         <v>21</v>
       </c>
       <c r="K96" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L96" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M96" s="2">
-        <v>11</v>
-      </c>
-      <c r="N96" s="2">
-        <v>17</v>
-      </c>
-      <c r="P96" s="4">
+        <v>17</v>
+      </c>
+      <c r="O96" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
+      </c>
+      <c r="P96" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
@@ -3836,16 +3836,16 @@
       <c r="H97" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="K97" s="2">
+        <v>4</v>
+      </c>
       <c r="L97" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M97" s="2">
-        <v>14</v>
-      </c>
-      <c r="N97" s="2">
         <v>10</v>
       </c>
-      <c r="P97" s="4">
+      <c r="O97" s="4">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -3872,16 +3872,16 @@
       <c r="H98" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="K98" s="2">
+        <v>11</v>
+      </c>
       <c r="L98" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M98" s="2">
-        <v>6</v>
-      </c>
-      <c r="N98" s="2">
         <v>8</v>
       </c>
-      <c r="P98" s="4">
+      <c r="O98" s="4">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -3908,16 +3908,16 @@
       <c r="H99" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="K99" s="2">
+        <v>8</v>
+      </c>
       <c r="L99" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M99" s="2">
         <v>9</v>
       </c>
-      <c r="N99" s="2">
-        <v>9</v>
-      </c>
-      <c r="P99" s="4">
+      <c r="O99" s="4">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -3944,16 +3944,16 @@
       <c r="H100" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="K100" s="2">
+        <v>3</v>
+      </c>
       <c r="L100" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M100" s="2">
-        <v>6</v>
-      </c>
-      <c r="N100" s="2">
-        <v>20</v>
-      </c>
-      <c r="P100" s="4">
+        <v>20</v>
+      </c>
+      <c r="O100" s="4">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -3980,16 +3980,16 @@
       <c r="H101" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="K101" s="2">
+        <v>5</v>
+      </c>
       <c r="L101" s="2">
+        <v>12</v>
+      </c>
+      <c r="M101" s="2">
         <v>5</v>
       </c>
-      <c r="M101" s="2">
-        <v>12</v>
-      </c>
-      <c r="N101" s="2">
-        <v>5</v>
-      </c>
-      <c r="P101" s="4">
+      <c r="O101" s="4">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
@@ -4016,16 +4016,16 @@
       <c r="H102" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="K102" s="2">
+        <v>1</v>
+      </c>
       <c r="L102" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="M102" s="2">
-        <v>21</v>
-      </c>
-      <c r="N102" s="2">
-        <v>2</v>
-      </c>
-      <c r="P102" s="4">
+        <v>2</v>
+      </c>
+      <c r="O102" s="4">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -4053,21 +4053,21 @@
         <v>21</v>
       </c>
       <c r="K103" s="2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L103" s="2">
         <v>10</v>
       </c>
       <c r="M103" s="2">
-        <v>10</v>
-      </c>
-      <c r="N103" s="2">
         <v>27</v>
       </c>
-      <c r="P103" s="4">
+      <c r="O103" s="4">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
+      <c r="P103" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
@@ -4092,21 +4092,21 @@
         <v>21</v>
       </c>
       <c r="K104" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="L104" s="2">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="M104" s="2">
-        <v>26</v>
-      </c>
-      <c r="N104" s="2">
         <v>16</v>
       </c>
-      <c r="P104" s="4">
+      <c r="O104" s="4">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
+      <c r="P104" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
@@ -4131,21 +4131,21 @@
         <v>21</v>
       </c>
       <c r="K105" s="2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L105" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M105" s="2">
-        <v>12</v>
-      </c>
-      <c r="N105" s="2">
         <v>29</v>
       </c>
-      <c r="P105" s="4">
+      <c r="O105" s="4">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
+      <c r="P105" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
@@ -4170,21 +4170,21 @@
         <v>21</v>
       </c>
       <c r="K106" s="2">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L106" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M106" s="2">
-        <v>7</v>
-      </c>
-      <c r="N106" s="2">
         <v>37</v>
       </c>
-      <c r="P106" s="4">
+      <c r="O106" s="4">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
+      <c r="P106" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
@@ -4209,21 +4209,21 @@
         <v>21</v>
       </c>
       <c r="K107" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L107" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M107" s="2">
-        <v>13</v>
-      </c>
-      <c r="N107" s="2">
-        <v>21</v>
-      </c>
-      <c r="P107" s="4">
+        <v>21</v>
+      </c>
+      <c r="O107" s="4">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
+      <c r="P107" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
@@ -4248,21 +4248,21 @@
         <v>21</v>
       </c>
       <c r="K108" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="L108" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M108" s="2">
-        <v>10</v>
-      </c>
-      <c r="N108" s="2">
         <v>30</v>
       </c>
-      <c r="P108" s="4">
+      <c r="O108" s="4">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
+      <c r="P108" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
@@ -4287,21 +4287,21 @@
         <v>21</v>
       </c>
       <c r="K109" s="2">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="L109" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M109" s="2">
-        <v>3</v>
-      </c>
-      <c r="N109" s="2">
         <v>43</v>
       </c>
-      <c r="P109" s="4">
+      <c r="O109" s="4">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
+      <c r="P109" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
@@ -4326,21 +4326,21 @@
         <v>21</v>
       </c>
       <c r="K110" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="L110" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M110" s="2">
-        <v>6</v>
-      </c>
-      <c r="N110" s="2">
         <v>37</v>
       </c>
-      <c r="P110" s="4">
+      <c r="O110" s="4">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
+      <c r="P110" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
@@ -4365,24 +4365,24 @@
         <v>21</v>
       </c>
       <c r="K111" s="2">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="L111" s="2">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M111" s="2">
-        <v>5</v>
-      </c>
-      <c r="N111" s="2">
         <v>12</v>
       </c>
-      <c r="O111" s="8">
-        <v>2</v>
-      </c>
-      <c r="P111" s="4">
+      <c r="N111" s="8">
+        <v>2</v>
+      </c>
+      <c r="O111" s="4">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
+      <c r="P111" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
@@ -4407,23 +4407,23 @@
         <v>21</v>
       </c>
       <c r="K112" s="2">
+        <v>19</v>
+      </c>
+      <c r="L112" s="2">
+        <v>1</v>
+      </c>
+      <c r="M112" s="2">
+        <v>20</v>
+      </c>
+      <c r="N112" s="8">
+        <v>4</v>
+      </c>
+      <c r="O112" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P112" s="2">
         <v>48</v>
-      </c>
-      <c r="L112" s="2">
-        <v>19</v>
-      </c>
-      <c r="M112" s="2">
-        <v>1</v>
-      </c>
-      <c r="N112" s="2">
-        <v>20</v>
-      </c>
-      <c r="O112" s="8">
-        <v>4</v>
-      </c>
-      <c r="P112" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -4449,23 +4449,23 @@
         <v>21</v>
       </c>
       <c r="K113" s="2">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L113" s="2">
         <v>11</v>
       </c>
       <c r="M113" s="2">
-        <v>11</v>
-      </c>
-      <c r="N113" s="2">
         <v>18</v>
       </c>
-      <c r="O113" s="8">
+      <c r="N113" s="8">
         <v>1</v>
       </c>
-      <c r="P113" s="4">
+      <c r="O113" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
+      </c>
+      <c r="P113" s="2">
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -4491,23 +4491,23 @@
         <v>21</v>
       </c>
       <c r="K114" s="2">
+        <v>2</v>
+      </c>
+      <c r="L114" s="2">
+        <v>3</v>
+      </c>
+      <c r="M114" s="2">
+        <v>35</v>
+      </c>
+      <c r="N114" s="8">
+        <v>2</v>
+      </c>
+      <c r="O114" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P114" s="2">
         <v>48</v>
-      </c>
-      <c r="L114" s="2">
-        <v>2</v>
-      </c>
-      <c r="M114" s="2">
-        <v>3</v>
-      </c>
-      <c r="N114" s="2">
-        <v>35</v>
-      </c>
-      <c r="O114" s="8">
-        <v>2</v>
-      </c>
-      <c r="P114" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4533,23 +4533,23 @@
         <v>21</v>
       </c>
       <c r="K115" s="2">
+        <v>16</v>
+      </c>
+      <c r="L115" s="2">
+        <v>15</v>
+      </c>
+      <c r="M115" s="2">
+        <v>9</v>
+      </c>
+      <c r="N115" s="8">
+        <v>1</v>
+      </c>
+      <c r="O115" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P115" s="2">
         <v>48</v>
-      </c>
-      <c r="L115" s="2">
-        <v>16</v>
-      </c>
-      <c r="M115" s="2">
-        <v>15</v>
-      </c>
-      <c r="N115" s="2">
-        <v>9</v>
-      </c>
-      <c r="O115" s="8">
-        <v>1</v>
-      </c>
-      <c r="P115" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -4575,24 +4575,24 @@
         <v>21</v>
       </c>
       <c r="K116" s="2">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L116" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M116" s="2">
-        <v>8</v>
-      </c>
-      <c r="N116" s="2">
-        <v>17</v>
-      </c>
-      <c r="O116" s="8">
+        <v>17</v>
+      </c>
+      <c r="N116" s="8">
         <v>1</v>
       </c>
-      <c r="P116" s="4">
+      <c r="O116" s="4">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
+      <c r="P116" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B117" s="2">
@@ -4617,24 +4617,24 @@
         <v>21</v>
       </c>
       <c r="K117" s="2">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="L117" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M117" s="2">
-        <v>8</v>
-      </c>
-      <c r="N117" s="2">
         <v>18</v>
       </c>
-      <c r="O117" s="8">
+      <c r="N117" s="8">
         <v>1</v>
       </c>
-      <c r="P117" s="4">
+      <c r="O117" s="4">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
+      <c r="P117" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B118" s="2">
@@ -4659,23 +4659,23 @@
         <v>21</v>
       </c>
       <c r="K118" s="2">
+        <v>7</v>
+      </c>
+      <c r="L118" s="2">
+        <v>9</v>
+      </c>
+      <c r="M118" s="2">
+        <v>24</v>
+      </c>
+      <c r="N118" s="8">
+        <v>0</v>
+      </c>
+      <c r="O118" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P118" s="2">
         <v>48</v>
-      </c>
-      <c r="L118" s="2">
-        <v>7</v>
-      </c>
-      <c r="M118" s="2">
-        <v>9</v>
-      </c>
-      <c r="N118" s="2">
-        <v>24</v>
-      </c>
-      <c r="O118" s="8">
-        <v>0</v>
-      </c>
-      <c r="P118" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -4701,23 +4701,23 @@
         <v>21</v>
       </c>
       <c r="K119" s="2">
+        <v>5</v>
+      </c>
+      <c r="L119" s="2">
+        <v>8</v>
+      </c>
+      <c r="M119" s="2">
+        <v>27</v>
+      </c>
+      <c r="N119" s="8">
+        <v>1</v>
+      </c>
+      <c r="O119" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P119" s="2">
         <v>48</v>
-      </c>
-      <c r="L119" s="2">
-        <v>5</v>
-      </c>
-      <c r="M119" s="2">
-        <v>8</v>
-      </c>
-      <c r="N119" s="2">
-        <v>27</v>
-      </c>
-      <c r="O119" s="8">
-        <v>1</v>
-      </c>
-      <c r="P119" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -4743,24 +4743,24 @@
         <v>21</v>
       </c>
       <c r="K120" s="2">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="L120" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M120" s="2">
-        <v>10</v>
-      </c>
-      <c r="N120" s="2">
         <v>7</v>
       </c>
-      <c r="O120" s="8">
+      <c r="N120" s="8">
         <v>0</v>
       </c>
-      <c r="P120" s="4">
+      <c r="O120" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
+      <c r="P120" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B121" s="2">
@@ -4785,23 +4785,23 @@
         <v>21</v>
       </c>
       <c r="K121" s="2">
+        <v>4</v>
+      </c>
+      <c r="L121" s="2">
+        <v>8</v>
+      </c>
+      <c r="M121" s="2">
+        <v>28</v>
+      </c>
+      <c r="N121" s="8">
+        <v>0</v>
+      </c>
+      <c r="O121" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P121" s="2">
         <v>48</v>
-      </c>
-      <c r="L121" s="2">
-        <v>4</v>
-      </c>
-      <c r="M121" s="2">
-        <v>8</v>
-      </c>
-      <c r="N121" s="2">
-        <v>28</v>
-      </c>
-      <c r="O121" s="8">
-        <v>0</v>
-      </c>
-      <c r="P121" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -4835,25 +4835,25 @@
       <c r="J122" s="6">
         <v>0.40625</v>
       </c>
-      <c r="K122" s="7">
-        <v>72</v>
+      <c r="K122" s="2">
+        <v>18</v>
       </c>
       <c r="L122" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M122" s="2">
-        <v>8</v>
-      </c>
-      <c r="N122" s="2">
         <v>10</v>
       </c>
-      <c r="O122" s="8">
+      <c r="N122" s="8">
         <v>0</v>
       </c>
-      <c r="P122" s="4">
+      <c r="O122" s="4">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
+      <c r="P122" s="7">
+        <v>72</v>
+      </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
@@ -4886,25 +4886,25 @@
       <c r="J123" s="6">
         <v>0.40972222222222227</v>
       </c>
-      <c r="K123" s="7">
-        <v>72</v>
+      <c r="K123" s="2">
+        <v>22</v>
       </c>
       <c r="L123" s="2">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="M123" s="2">
-        <v>3</v>
-      </c>
-      <c r="N123" s="2">
         <v>13</v>
       </c>
-      <c r="O123" s="8">
+      <c r="N123" s="8">
         <v>0</v>
       </c>
-      <c r="P123" s="4">
+      <c r="O123" s="4">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
+      <c r="P123" s="7">
+        <v>72</v>
+      </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
@@ -4937,24 +4937,24 @@
       <c r="J124" s="6">
         <v>0.41111111111111115</v>
       </c>
-      <c r="K124" s="7">
+      <c r="K124" s="2">
+        <v>9</v>
+      </c>
+      <c r="L124" s="2">
+        <v>18</v>
+      </c>
+      <c r="M124" s="2">
+        <v>13</v>
+      </c>
+      <c r="N124" s="8">
+        <v>1</v>
+      </c>
+      <c r="O124" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P124" s="7">
         <v>72</v>
-      </c>
-      <c r="L124" s="2">
-        <v>9</v>
-      </c>
-      <c r="M124" s="2">
-        <v>18</v>
-      </c>
-      <c r="N124" s="2">
-        <v>13</v>
-      </c>
-      <c r="O124" s="8">
-        <v>1</v>
-      </c>
-      <c r="P124" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -4988,24 +4988,24 @@
       <c r="J125" s="6">
         <v>0.4152777777777778</v>
       </c>
-      <c r="K125" s="7">
-        <v>72</v>
+      <c r="K125" s="2">
+        <v>15</v>
       </c>
       <c r="L125" s="2">
         <v>15</v>
       </c>
       <c r="M125" s="2">
-        <v>15</v>
-      </c>
-      <c r="N125" s="2">
         <v>10</v>
       </c>
-      <c r="O125" s="8">
+      <c r="N125" s="8">
         <v>0</v>
       </c>
-      <c r="P125" s="4">
+      <c r="O125" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
+      </c>
+      <c r="P125" s="7">
+        <v>72</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -5039,24 +5039,24 @@
       <c r="J126" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K126" s="7">
+      <c r="K126" s="2">
+        <v>19</v>
+      </c>
+      <c r="L126" s="2">
+        <v>10</v>
+      </c>
+      <c r="M126" s="2">
+        <v>11</v>
+      </c>
+      <c r="N126" s="8">
+        <v>0</v>
+      </c>
+      <c r="O126" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P126" s="7">
         <v>72</v>
-      </c>
-      <c r="L126" s="2">
-        <v>19</v>
-      </c>
-      <c r="M126" s="2">
-        <v>10</v>
-      </c>
-      <c r="N126" s="2">
-        <v>11</v>
-      </c>
-      <c r="O126" s="8">
-        <v>0</v>
-      </c>
-      <c r="P126" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -5090,24 +5090,24 @@
       <c r="J127" s="6">
         <v>0.4201388888888889</v>
       </c>
-      <c r="K127" s="7">
+      <c r="K127" s="2">
+        <v>24</v>
+      </c>
+      <c r="L127" s="2">
+        <v>9</v>
+      </c>
+      <c r="M127" s="2">
+        <v>7</v>
+      </c>
+      <c r="N127" s="8">
+        <v>1</v>
+      </c>
+      <c r="O127" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P127" s="7">
         <v>72</v>
-      </c>
-      <c r="L127" s="2">
-        <v>24</v>
-      </c>
-      <c r="M127" s="2">
-        <v>9</v>
-      </c>
-      <c r="N127" s="2">
-        <v>7</v>
-      </c>
-      <c r="O127" s="8">
-        <v>1</v>
-      </c>
-      <c r="P127" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -5141,24 +5141,24 @@
       <c r="J128" s="6">
         <v>0.42499999999999999</v>
       </c>
-      <c r="K128" s="7">
+      <c r="K128" s="2">
+        <v>26</v>
+      </c>
+      <c r="L128" s="2">
+        <v>4</v>
+      </c>
+      <c r="M128" s="2">
+        <v>10</v>
+      </c>
+      <c r="N128" s="8">
+        <v>0</v>
+      </c>
+      <c r="O128" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P128" s="7">
         <v>72</v>
-      </c>
-      <c r="L128" s="2">
-        <v>26</v>
-      </c>
-      <c r="M128" s="2">
-        <v>4</v>
-      </c>
-      <c r="N128" s="2">
-        <v>10</v>
-      </c>
-      <c r="O128" s="8">
-        <v>0</v>
-      </c>
-      <c r="P128" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -5192,24 +5192,24 @@
       <c r="J129" s="6">
         <v>0.42777777777777781</v>
       </c>
-      <c r="K129" s="7">
+      <c r="K129" s="2">
+        <v>12</v>
+      </c>
+      <c r="L129" s="2">
+        <v>15</v>
+      </c>
+      <c r="M129" s="2">
+        <v>13</v>
+      </c>
+      <c r="N129" s="8">
+        <v>0</v>
+      </c>
+      <c r="O129" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="P129" s="7">
         <v>72</v>
-      </c>
-      <c r="L129" s="2">
-        <v>12</v>
-      </c>
-      <c r="M129" s="2">
-        <v>15</v>
-      </c>
-      <c r="N129" s="2">
-        <v>13</v>
-      </c>
-      <c r="O129" s="8">
-        <v>0</v>
-      </c>
-      <c r="P129" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -5243,24 +5243,24 @@
       <c r="J130" s="6">
         <v>0.4284722222222222</v>
       </c>
-      <c r="K130" s="7">
-        <v>72</v>
+      <c r="K130" s="2">
+        <v>16</v>
       </c>
       <c r="L130" s="2">
         <v>16</v>
       </c>
       <c r="M130" s="2">
-        <v>16</v>
-      </c>
-      <c r="N130" s="2">
         <v>8</v>
       </c>
-      <c r="O130" s="8">
+      <c r="N130" s="8">
         <v>0</v>
       </c>
-      <c r="P130" s="4">
-        <f t="shared" ref="P130:P132" si="2">L130+M130+N130</f>
-        <v>40</v>
+      <c r="O130" s="4">
+        <f t="shared" ref="O130:O132" si="2">K130+L130+M130</f>
+        <v>40</v>
+      </c>
+      <c r="P130" s="7">
+        <v>72</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -5294,25 +5294,25 @@
       <c r="J131" s="6">
         <v>0.4291666666666667</v>
       </c>
-      <c r="K131" s="7">
-        <v>72</v>
+      <c r="K131" s="2">
+        <v>15</v>
       </c>
       <c r="L131" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M131" s="2">
-        <v>10</v>
-      </c>
-      <c r="N131" s="2">
         <v>14</v>
       </c>
-      <c r="O131" s="8">
+      <c r="N131" s="8">
         <v>0</v>
       </c>
-      <c r="P131" s="4">
+      <c r="O131" s="4">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
+      <c r="P131" s="7">
+        <v>72</v>
+      </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
@@ -5345,24 +5345,24 @@
       <c r="J132" s="6">
         <v>0.43333333333333335</v>
       </c>
-      <c r="K132" s="7">
+      <c r="K132" s="2">
+        <v>7</v>
+      </c>
+      <c r="L132" s="2">
+        <v>23</v>
+      </c>
+      <c r="M132" s="2">
+        <v>10</v>
+      </c>
+      <c r="N132" s="8">
+        <v>0</v>
+      </c>
+      <c r="O132" s="4">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="P132" s="7">
         <v>72</v>
-      </c>
-      <c r="L132" s="2">
-        <v>7</v>
-      </c>
-      <c r="M132" s="2">
-        <v>23</v>
-      </c>
-      <c r="N132" s="2">
-        <v>10</v>
-      </c>
-      <c r="O132" s="8">
-        <v>0</v>
-      </c>
-      <c r="P132" s="4">
-        <f t="shared" si="2"/>
-        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -5396,24 +5396,24 @@
       <c r="J133" s="5">
         <v>0.40625</v>
       </c>
-      <c r="K133" s="7">
+      <c r="K133" s="3">
+        <v>13</v>
+      </c>
+      <c r="L133" s="3">
+        <v>7</v>
+      </c>
+      <c r="M133" s="3">
+        <v>20</v>
+      </c>
+      <c r="N133" s="9">
+        <v>1</v>
+      </c>
+      <c r="O133" s="4">
+        <f>K133+L133+M133</f>
+        <v>40</v>
+      </c>
+      <c r="P133" s="7">
         <v>72</v>
-      </c>
-      <c r="L133" s="3">
-        <v>13</v>
-      </c>
-      <c r="M133" s="3">
-        <v>7</v>
-      </c>
-      <c r="N133" s="3">
-        <v>20</v>
-      </c>
-      <c r="O133" s="9">
-        <v>1</v>
-      </c>
-      <c r="P133" s="4">
-        <f>L133+M133+N133</f>
-        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -5447,24 +5447,24 @@
       <c r="J134" s="5">
         <v>0.41111111111111115</v>
       </c>
-      <c r="K134" s="7">
-        <v>72</v>
+      <c r="K134" s="4">
+        <v>15</v>
       </c>
       <c r="L134" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M134" s="4">
         <v>12</v>
       </c>
-      <c r="N134" s="4">
-        <v>12</v>
-      </c>
-      <c r="O134" s="9">
+      <c r="N134" s="9">
         <v>0</v>
       </c>
-      <c r="P134" s="4">
-        <f t="shared" ref="P134:P143" si="3">L134+M134+N134</f>
+      <c r="O134" s="4">
+        <f t="shared" ref="O134:O143" si="3">K134+L134+M134</f>
         <v>39</v>
+      </c>
+      <c r="P134" s="7">
+        <v>72</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -5498,24 +5498,24 @@
       <c r="J135" s="5">
         <v>0.41250000000000003</v>
       </c>
-      <c r="K135" s="7">
+      <c r="K135" s="4">
+        <v>23</v>
+      </c>
+      <c r="L135" s="4">
+        <v>10</v>
+      </c>
+      <c r="M135" s="4">
+        <v>7</v>
+      </c>
+      <c r="N135" s="9">
+        <v>0</v>
+      </c>
+      <c r="O135" s="4">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="P135" s="7">
         <v>72</v>
-      </c>
-      <c r="L135" s="4">
-        <v>23</v>
-      </c>
-      <c r="M135" s="4">
-        <v>10</v>
-      </c>
-      <c r="N135" s="4">
-        <v>7</v>
-      </c>
-      <c r="O135" s="9">
-        <v>0</v>
-      </c>
-      <c r="P135" s="4">
-        <f t="shared" si="3"/>
-        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -5549,24 +5549,24 @@
       <c r="J136" s="5">
         <v>0.41319444444444442</v>
       </c>
-      <c r="K136" s="7">
+      <c r="K136" s="4">
+        <v>25</v>
+      </c>
+      <c r="L136" s="4">
+        <v>3</v>
+      </c>
+      <c r="M136" s="4">
+        <v>12</v>
+      </c>
+      <c r="N136" s="9">
+        <v>0</v>
+      </c>
+      <c r="O136" s="4">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="P136" s="7">
         <v>72</v>
-      </c>
-      <c r="L136" s="4">
-        <v>25</v>
-      </c>
-      <c r="M136" s="4">
-        <v>3</v>
-      </c>
-      <c r="N136" s="4">
-        <v>12</v>
-      </c>
-      <c r="O136" s="9">
-        <v>0</v>
-      </c>
-      <c r="P136" s="4">
-        <f t="shared" si="3"/>
-        <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
@@ -5600,25 +5600,25 @@
       <c r="J137" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K137" s="7">
-        <v>72</v>
+      <c r="K137" s="4">
+        <v>18</v>
       </c>
       <c r="L137" s="4">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M137" s="4">
-        <v>5</v>
-      </c>
-      <c r="N137" s="4">
         <v>13</v>
       </c>
-      <c r="O137" s="9">
+      <c r="N137" s="9">
         <v>0</v>
       </c>
-      <c r="P137" s="4">
+      <c r="O137" s="4">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
+      <c r="P137" s="7">
+        <v>72</v>
+      </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
@@ -5651,24 +5651,24 @@
       <c r="J138" s="5">
         <v>0.41944444444444445</v>
       </c>
-      <c r="K138" s="7">
-        <v>72</v>
+      <c r="K138" s="4">
+        <v>24</v>
       </c>
       <c r="L138" s="4">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M138" s="4">
         <v>8</v>
       </c>
-      <c r="N138" s="4">
-        <v>8</v>
-      </c>
-      <c r="O138" s="9">
+      <c r="N138" s="9">
         <v>0</v>
       </c>
-      <c r="P138" s="4">
+      <c r="O138" s="4">
         <f t="shared" si="3"/>
         <v>40</v>
+      </c>
+      <c r="P138" s="7">
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
@@ -5702,25 +5702,25 @@
       <c r="J139" s="5">
         <v>0.42083333333333334</v>
       </c>
-      <c r="K139" s="7">
-        <v>72</v>
+      <c r="K139" s="4">
+        <v>24</v>
       </c>
       <c r="L139" s="4">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="M139" s="4">
-        <v>5</v>
-      </c>
-      <c r="N139" s="4">
         <v>10</v>
       </c>
-      <c r="O139" s="9">
+      <c r="N139" s="9">
         <v>0</v>
       </c>
-      <c r="P139" s="4">
+      <c r="O139" s="4">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
+      <c r="P139" s="7">
+        <v>72</v>
+      </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
@@ -5753,25 +5753,25 @@
       <c r="J140" s="5">
         <v>0.42222222222222222</v>
       </c>
-      <c r="K140" s="7">
-        <v>72</v>
+      <c r="K140" s="4">
+        <v>13</v>
       </c>
       <c r="L140" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M140" s="4">
-        <v>10</v>
-      </c>
-      <c r="N140" s="4">
         <v>19</v>
       </c>
-      <c r="O140" s="9">
+      <c r="N140" s="9">
         <v>0</v>
       </c>
-      <c r="P140" s="4">
+      <c r="O140" s="4">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
+      <c r="P140" s="7">
+        <v>72</v>
+      </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
@@ -5804,24 +5804,24 @@
       <c r="J141" s="5">
         <v>0.42638888888888887</v>
       </c>
-      <c r="K141" s="7">
+      <c r="K141" s="4">
+        <v>23</v>
+      </c>
+      <c r="L141" s="4">
+        <v>10</v>
+      </c>
+      <c r="M141" s="4">
+        <v>7</v>
+      </c>
+      <c r="N141" s="9">
+        <v>0</v>
+      </c>
+      <c r="O141" s="4">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="P141" s="7">
         <v>72</v>
-      </c>
-      <c r="L141" s="4">
-        <v>23</v>
-      </c>
-      <c r="M141" s="4">
-        <v>10</v>
-      </c>
-      <c r="N141" s="4">
-        <v>7</v>
-      </c>
-      <c r="O141" s="9">
-        <v>0</v>
-      </c>
-      <c r="P141" s="4">
-        <f t="shared" si="3"/>
-        <v>40</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
@@ -5855,24 +5855,24 @@
       <c r="J142" s="5">
         <v>0.4291666666666667</v>
       </c>
-      <c r="K142" s="7">
-        <v>72</v>
+      <c r="K142" s="4">
+        <v>14</v>
       </c>
       <c r="L142" s="4">
         <v>14</v>
       </c>
       <c r="M142" s="4">
-        <v>14</v>
-      </c>
-      <c r="N142" s="4">
         <v>12</v>
       </c>
-      <c r="O142" s="9">
+      <c r="N142" s="9">
         <v>0</v>
       </c>
-      <c r="P142" s="4">
+      <c r="O142" s="4">
         <f t="shared" si="3"/>
         <v>40</v>
+      </c>
+      <c r="P142" s="7">
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
@@ -5906,24 +5906,524 @@
       <c r="J143" s="5">
         <v>0.43263888888888885</v>
       </c>
-      <c r="K143" s="7">
+      <c r="K143" s="4">
+        <v>16</v>
+      </c>
+      <c r="L143" s="4">
+        <v>11</v>
+      </c>
+      <c r="M143" s="4">
+        <v>13</v>
+      </c>
+      <c r="N143" s="9">
+        <v>0</v>
+      </c>
+      <c r="O143" s="4">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="P143" s="7">
         <v>72</v>
       </c>
-      <c r="L143" s="4">
-        <v>16</v>
-      </c>
-      <c r="M143" s="4">
-        <v>11</v>
-      </c>
-      <c r="N143" s="4">
-        <v>13</v>
-      </c>
-      <c r="O143" s="9">
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>19</v>
+      </c>
+      <c r="B144" s="2">
+        <v>40</v>
+      </c>
+      <c r="C144" s="2">
+        <v>20191011</v>
+      </c>
+      <c r="D144" s="2">
+        <v>1</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I144" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J144" s="6">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="K144" s="2">
+        <v>3</v>
+      </c>
+      <c r="L144" s="2">
+        <v>5</v>
+      </c>
+      <c r="M144" s="2">
+        <v>32</v>
+      </c>
+      <c r="N144" s="8">
+        <v>2</v>
+      </c>
+      <c r="O144" s="2">
+        <v>40</v>
+      </c>
+      <c r="P144" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>19</v>
+      </c>
+      <c r="B145" s="2">
+        <v>40</v>
+      </c>
+      <c r="C145" s="2">
+        <v>20191011</v>
+      </c>
+      <c r="D145" s="2">
+        <v>2</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I145" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J145" s="6">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="K145" s="2">
+        <v>1</v>
+      </c>
+      <c r="L145" s="2">
+        <v>3</v>
+      </c>
+      <c r="M145" s="2">
+        <v>36</v>
+      </c>
+      <c r="N145" s="8">
+        <v>3</v>
+      </c>
+      <c r="O145" s="2">
+        <v>40</v>
+      </c>
+      <c r="P145" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>19</v>
+      </c>
+      <c r="B146" s="2">
+        <v>40</v>
+      </c>
+      <c r="C146" s="2">
+        <v>20191011</v>
+      </c>
+      <c r="D146" s="2">
+        <v>3</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I146" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J146" s="6">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="K146" s="2">
+        <v>10</v>
+      </c>
+      <c r="L146" s="2">
+        <v>3</v>
+      </c>
+      <c r="M146" s="2">
+        <v>24</v>
+      </c>
+      <c r="N146" s="8">
+        <v>2</v>
+      </c>
+      <c r="O146" s="2">
+        <v>37</v>
+      </c>
+      <c r="P146" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>19</v>
+      </c>
+      <c r="B147" s="2">
+        <v>40</v>
+      </c>
+      <c r="C147" s="2">
+        <v>20191011</v>
+      </c>
+      <c r="D147" s="2">
+        <v>4</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I147" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J147" s="6">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="K147" s="2">
+        <v>20</v>
+      </c>
+      <c r="L147" s="2">
+        <v>1</v>
+      </c>
+      <c r="M147" s="2">
+        <v>19</v>
+      </c>
+      <c r="N147" s="8">
+        <v>1</v>
+      </c>
+      <c r="O147" s="2">
+        <v>40</v>
+      </c>
+      <c r="P147" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>19</v>
+      </c>
+      <c r="B148" s="2">
+        <v>40</v>
+      </c>
+      <c r="C148" s="2">
+        <v>20191011</v>
+      </c>
+      <c r="D148" s="2">
+        <v>5</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I148" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J148" s="6">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="K148" s="2">
+        <v>12</v>
+      </c>
+      <c r="L148" s="2">
+        <v>6</v>
+      </c>
+      <c r="M148" s="2">
+        <v>21</v>
+      </c>
+      <c r="N148" s="8">
         <v>0</v>
       </c>
-      <c r="P143" s="4">
-        <f t="shared" si="3"/>
-        <v>40</v>
+      <c r="O148" s="2">
+        <v>39</v>
+      </c>
+      <c r="P148" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>19</v>
+      </c>
+      <c r="B149" s="2">
+        <v>40</v>
+      </c>
+      <c r="C149" s="2">
+        <v>20191011</v>
+      </c>
+      <c r="D149" s="2">
+        <v>6</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I149" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J149" s="6">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="K149" s="2">
+        <v>5</v>
+      </c>
+      <c r="L149" s="2">
+        <v>12</v>
+      </c>
+      <c r="M149" s="2">
+        <v>23</v>
+      </c>
+      <c r="N149" s="8">
+        <v>0</v>
+      </c>
+      <c r="O149" s="2">
+        <v>40</v>
+      </c>
+      <c r="P149" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>19</v>
+      </c>
+      <c r="B150" s="2">
+        <v>40</v>
+      </c>
+      <c r="C150" s="2">
+        <v>20191011</v>
+      </c>
+      <c r="D150" s="2">
+        <v>7</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I150" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J150" s="6">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="K150" s="2">
+        <v>4</v>
+      </c>
+      <c r="L150" s="2">
+        <v>5</v>
+      </c>
+      <c r="M150" s="2">
+        <v>31</v>
+      </c>
+      <c r="N150" s="8">
+        <v>1</v>
+      </c>
+      <c r="O150" s="2">
+        <v>40</v>
+      </c>
+      <c r="P150" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>19</v>
+      </c>
+      <c r="B151" s="2">
+        <v>40</v>
+      </c>
+      <c r="C151" s="2">
+        <v>20191011</v>
+      </c>
+      <c r="D151" s="2">
+        <v>8</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I151" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J151" s="6">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="K151" s="2">
+        <v>6</v>
+      </c>
+      <c r="L151" s="2">
+        <v>2</v>
+      </c>
+      <c r="M151" s="2">
+        <v>32</v>
+      </c>
+      <c r="N151" s="8">
+        <v>1</v>
+      </c>
+      <c r="O151" s="2">
+        <v>40</v>
+      </c>
+      <c r="P151" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>19</v>
+      </c>
+      <c r="B152" s="2">
+        <v>40</v>
+      </c>
+      <c r="C152" s="2">
+        <v>20191011</v>
+      </c>
+      <c r="D152" s="2">
+        <v>9</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I152" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J152" s="6">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="K152" s="2">
+        <v>9</v>
+      </c>
+      <c r="L152" s="2">
+        <v>8</v>
+      </c>
+      <c r="M152" s="2">
+        <v>22</v>
+      </c>
+      <c r="N152" s="8">
+        <v>0</v>
+      </c>
+      <c r="O152" s="2">
+        <v>39</v>
+      </c>
+      <c r="P152" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>19</v>
+      </c>
+      <c r="B153" s="2">
+        <v>40</v>
+      </c>
+      <c r="C153" s="2">
+        <v>20191011</v>
+      </c>
+      <c r="D153" s="2">
+        <v>10</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I153" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J153" s="6">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="K153" s="2">
+        <v>4</v>
+      </c>
+      <c r="L153" s="2">
+        <v>3</v>
+      </c>
+      <c r="M153" s="2">
+        <v>32</v>
+      </c>
+      <c r="N153" s="8">
+        <v>2</v>
+      </c>
+      <c r="O153" s="2">
+        <v>39</v>
+      </c>
+      <c r="P153" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
